--- a/paper_GLP_1_dataset_20251203.xlsx
+++ b/paper_GLP_1_dataset_20251203.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clover_teoh/Documents/cofit/GLP_1_成效分析/glp1_compare_update_20260114/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clover_teoh/Documents/cofit/GLP_1_成效分析/glp1_compare_paper_20260114/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818625F1-8B5E-A14E-A994-CA635300A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0D875-4974-3144-87C8-B1D262D69E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{50E1F571-E42D-6645-BCC0-58BB8D781B38}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{50E1F571-E42D-6645-BCC0-58BB8D781B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t>Genesis</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t xml:space="preserve">Overweight/Obese </t>
+  </si>
+  <si>
+    <t>Mounjaro 2.5 to 10mg</t>
+  </si>
+  <si>
+    <t>Mounjaro 2.5 to 15mg</t>
+  </si>
+  <si>
+    <t>Mounjaro 2.5 to 5mg</t>
+  </si>
+  <si>
+    <t>Wegovy  0.25 to 2.4mg</t>
   </si>
 </sst>
 </file>
@@ -874,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF34F476-2D1B-4645-AE01-1B09D27E409B}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1530,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1623,7 +1635,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1724,7 +1736,7 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1825,7 +1837,7 @@
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2031,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F3C168-83AD-3A4A-AD94-E2F06520F66C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2221,7 +2233,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -2241,7 +2253,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
